--- a/Configs/Datas/__tables__.xlsx
+++ b/Configs/Datas/__tables__.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21210" windowHeight="11925"/>
+    <workbookView windowWidth="24045" windowHeight="12525"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="48">
   <si>
     <t>##var</t>
   </si>
@@ -144,6 +144,33 @@
   </si>
   <si>
     <t>BulletData.xlsx</t>
+  </si>
+  <si>
+    <t>Entity.BaseDefine</t>
+  </si>
+  <si>
+    <t>EntityConfigs</t>
+  </si>
+  <si>
+    <t>EntityData.xlsx</t>
+  </si>
+  <si>
+    <t>Entity.SpawnDefine</t>
+  </si>
+  <si>
+    <t>SpawnData</t>
+  </si>
+  <si>
+    <t>SpawnData.xlsx</t>
+  </si>
+  <si>
+    <t>Entity.MoveDefine</t>
+  </si>
+  <si>
+    <t>MoveData</t>
+  </si>
+  <si>
+    <t>MoveData.xlsx</t>
   </si>
 </sst>
 </file>
@@ -1085,13 +1112,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="2" max="2" width="39.25" customWidth="1"/>
     <col min="3" max="3" width="15.575" customWidth="1"/>
@@ -1246,6 +1273,48 @@
         <v>38</v>
       </c>
     </row>
+    <row r="10" spans="2:5">
+      <c r="B10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" t="b">
+        <v>1</v>
+      </c>
+      <c r="E10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5">
+      <c r="B11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" t="b">
+        <v>1</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5">
+      <c r="B12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" t="b">
+        <v>1</v>
+      </c>
+      <c r="E12" t="s">
+        <v>47</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Configs/Datas/__tables__.xlsx
+++ b/Configs/Datas/__tables__.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="51">
   <si>
     <t>##var</t>
   </si>
@@ -171,6 +171,15 @@
   </si>
   <si>
     <t>MoveData.xlsx</t>
+  </si>
+  <si>
+    <t>Entity.SkillDefine</t>
+  </si>
+  <si>
+    <t>SkillData</t>
+  </si>
+  <si>
+    <t>SkillData.xlsx</t>
   </si>
 </sst>
 </file>
@@ -1112,10 +1121,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1315,6 +1324,20 @@
         <v>47</v>
       </c>
     </row>
+    <row r="13" spans="2:5">
+      <c r="B13" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" t="b">
+        <v>1</v>
+      </c>
+      <c r="E13" t="s">
+        <v>50</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Configs/Datas/__tables__.xlsx
+++ b/Configs/Datas/__tables__.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="54">
   <si>
     <t>##var</t>
   </si>
@@ -180,6 +180,15 @@
   </si>
   <si>
     <t>SkillData.xlsx</t>
+  </si>
+  <si>
+    <t>Entity.AnimationDefine</t>
+  </si>
+  <si>
+    <t>AnimationData</t>
+  </si>
+  <si>
+    <t>AnimationData.xlsx</t>
   </si>
 </sst>
 </file>
@@ -1121,10 +1130,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1338,6 +1347,20 @@
         <v>50</v>
       </c>
     </row>
+    <row r="14" spans="2:5">
+      <c r="B14" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14" t="s">
+        <v>52</v>
+      </c>
+      <c r="D14" t="b">
+        <v>1</v>
+      </c>
+      <c r="E14" t="s">
+        <v>53</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Configs/Datas/__tables__.xlsx
+++ b/Configs/Datas/__tables__.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="57">
   <si>
     <t>##var</t>
   </si>
@@ -189,6 +189,15 @@
   </si>
   <si>
     <t>AnimationData.xlsx</t>
+  </si>
+  <si>
+    <t>Entity.ComponentDefine</t>
+  </si>
+  <si>
+    <t>ComponentData</t>
+  </si>
+  <si>
+    <t>CharacterComponentData.xlsx</t>
   </si>
 </sst>
 </file>
@@ -1130,10 +1139,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K14"/>
+  <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1361,6 +1370,20 @@
         <v>53</v>
       </c>
     </row>
+    <row r="15" spans="2:5">
+      <c r="B15" t="s">
+        <v>54</v>
+      </c>
+      <c r="C15" t="s">
+        <v>55</v>
+      </c>
+      <c r="D15" t="b">
+        <v>1</v>
+      </c>
+      <c r="E15" t="s">
+        <v>56</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Configs/Datas/__tables__.xlsx
+++ b/Configs/Datas/__tables__.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="66">
   <si>
     <t>##var</t>
   </si>
@@ -198,6 +198,33 @@
   </si>
   <si>
     <t>CharacterComponentData.xlsx</t>
+  </si>
+  <si>
+    <t>Entity.EffectDefine</t>
+  </si>
+  <si>
+    <t>EffectData</t>
+  </si>
+  <si>
+    <t>EffectData.xlsx</t>
+  </si>
+  <si>
+    <t>Effect.MoveEffectDefine</t>
+  </si>
+  <si>
+    <t>Move</t>
+  </si>
+  <si>
+    <t>Effects/MoveEffect.xlsx</t>
+  </si>
+  <si>
+    <t>Effect.SpeedEffectDefine</t>
+  </si>
+  <si>
+    <t>SpeedChange</t>
+  </si>
+  <si>
+    <t>Effects/SpeedChangeEffect.xlsx</t>
   </si>
 </sst>
 </file>
@@ -1139,10 +1166,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K15"/>
+  <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1384,6 +1411,48 @@
         <v>56</v>
       </c>
     </row>
+    <row r="16" spans="2:5">
+      <c r="B16" t="s">
+        <v>57</v>
+      </c>
+      <c r="C16" t="s">
+        <v>58</v>
+      </c>
+      <c r="D16" t="b">
+        <v>1</v>
+      </c>
+      <c r="E16" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5">
+      <c r="B17" t="s">
+        <v>60</v>
+      </c>
+      <c r="C17" t="s">
+        <v>61</v>
+      </c>
+      <c r="D17" t="b">
+        <v>1</v>
+      </c>
+      <c r="E17" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5">
+      <c r="B18" t="s">
+        <v>63</v>
+      </c>
+      <c r="C18" t="s">
+        <v>64</v>
+      </c>
+      <c r="D18" t="b">
+        <v>1</v>
+      </c>
+      <c r="E18" t="s">
+        <v>65</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Configs/Datas/__tables__.xlsx
+++ b/Configs/Datas/__tables__.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="72">
   <si>
     <t>##var</t>
   </si>
@@ -225,6 +225,24 @@
   </si>
   <si>
     <t>Effects/SpeedChangeEffect.xlsx</t>
+  </si>
+  <si>
+    <t>Entity.AreaDefine</t>
+  </si>
+  <si>
+    <t>AreaConfigs</t>
+  </si>
+  <si>
+    <t>AreaData.xlsx</t>
+  </si>
+  <si>
+    <t>Effect.DirEffectDefine</t>
+  </si>
+  <si>
+    <t>DirChange</t>
+  </si>
+  <si>
+    <t>Effects/DirChangeEffect.xlsx</t>
   </si>
 </sst>
 </file>
@@ -1166,10 +1184,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K18"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1453,6 +1471,34 @@
         <v>65</v>
       </c>
     </row>
+    <row r="19" spans="2:5">
+      <c r="B19" t="s">
+        <v>66</v>
+      </c>
+      <c r="C19" t="s">
+        <v>67</v>
+      </c>
+      <c r="D19" t="b">
+        <v>1</v>
+      </c>
+      <c r="E19" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5">
+      <c r="B20" t="s">
+        <v>69</v>
+      </c>
+      <c r="C20" t="s">
+        <v>70</v>
+      </c>
+      <c r="D20" t="b">
+        <v>1</v>
+      </c>
+      <c r="E20" t="s">
+        <v>71</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Configs/Datas/__tables__.xlsx
+++ b/Configs/Datas/__tables__.xlsx
@@ -4,30 +4,17 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24045" windowHeight="12525"/>
+    <workbookView windowWidth="22368" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="75">
   <si>
     <t>##var</t>
   </si>
@@ -243,17 +230,26 @@
   </si>
   <si>
     <t>Effects/DirChangeEffect.xlsx</t>
+  </si>
+  <si>
+    <t>Txt.MainTxt</t>
+  </si>
+  <si>
+    <t>DialogueConfigs</t>
+  </si>
+  <si>
+    <t>dialogueData.xlsx</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -271,24 +267,84 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -302,19 +358,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -328,81 +384,21 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -423,19 +419,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -447,7 +521,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -459,139 +551,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -611,35 +607,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -659,6 +631,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -670,6 +653,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -692,19 +690,17 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -713,148 +709,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -862,58 +858,58 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="22">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="31">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -1184,18 +1180,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K20"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
     <col min="2" max="2" width="39.25" customWidth="1"/>
-    <col min="3" max="3" width="15.575" customWidth="1"/>
-    <col min="4" max="4" width="32.425" customWidth="1"/>
-    <col min="5" max="5" width="24.3833333333333" customWidth="1"/>
+    <col min="3" max="3" width="15.5740740740741" customWidth="1"/>
+    <col min="4" max="4" width="32.4259259259259" customWidth="1"/>
+    <col min="5" max="5" width="24.3796296296296" customWidth="1"/>
     <col min="6" max="9" width="18" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1499,6 +1495,20 @@
         <v>71</v>
       </c>
     </row>
+    <row r="21" spans="2:5">
+      <c r="B21" t="s">
+        <v>72</v>
+      </c>
+      <c r="C21" t="s">
+        <v>73</v>
+      </c>
+      <c r="D21" t="b">
+        <v>1</v>
+      </c>
+      <c r="E21" t="s">
+        <v>74</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Configs/Datas/__tables__.xlsx
+++ b/Configs/Datas/__tables__.xlsx
@@ -4,12 +4,25 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420"/>
+    <workbookView windowWidth="16810" windowHeight="7230"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -244,12 +257,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -267,8 +280,40 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -282,98 +327,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -384,12 +337,65 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="等线"/>
@@ -398,7 +404,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -419,19 +432,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -443,151 +528,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -607,11 +620,35 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -631,17 +668,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -653,21 +679,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -690,17 +701,19 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -709,148 +722,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -858,58 +871,58 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="31">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="22">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -1183,15 +1196,15 @@
   <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="B21" sqref="B21:E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="2" max="2" width="39.25" customWidth="1"/>
-    <col min="3" max="3" width="15.5740740740741" customWidth="1"/>
-    <col min="4" max="4" width="32.4259259259259" customWidth="1"/>
-    <col min="5" max="5" width="24.3796296296296" customWidth="1"/>
+    <col min="3" max="3" width="15.575" customWidth="1"/>
+    <col min="4" max="4" width="32.425" customWidth="1"/>
+    <col min="5" max="5" width="24.3833333333333" customWidth="1"/>
     <col min="6" max="9" width="18" customWidth="1"/>
   </cols>
   <sheetData>
